--- a/docs/Sprint-1/A-DAPT Blueprint and Task.xlsx
+++ b/docs/Sprint-1/A-DAPT Blueprint and Task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE\Sprint-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80176A23-5487-4AF9-8ADA-4447A1E75828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA4E9C1-EA12-4ECD-87B7-46FC3273CB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A-DAPT Blueprint" sheetId="1" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>การทำเอกสาร/คู่มือ</t>
   </si>
   <si>
-    <t>สุชญา พานสมภพ</t>
-  </si>
-  <si>
     <t>TS-S1-009</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>รวม</t>
+  </si>
+  <si>
+    <t>สุชญา พานสมภพ,วัฒนพงศ์ วิชาโคตร</t>
   </si>
 </sst>
 </file>
@@ -969,7 +969,7 @@
   </sheetPr>
   <dimension ref="A1:R948"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -30316,7 +30316,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -30686,7 +30688,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -30713,13 +30715,13 @@
         <v>28</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="E10" s="23">
         <v>4</v>
@@ -30728,7 +30730,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -30752,10 +30754,10 @@
     </row>
     <row r="11" spans="1:26" ht="22.5" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>30</v>
@@ -30794,10 +30796,10 @@
     </row>
     <row r="12" spans="1:26" ht="22.5" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>34</v>
@@ -30836,10 +30838,10 @@
     </row>
     <row r="13" spans="1:26" ht="22.5" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>38</v>
@@ -30878,10 +30880,10 @@
     </row>
     <row r="14" spans="1:26" ht="22.5" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>42</v>
@@ -30920,10 +30922,10 @@
     </row>
     <row r="15" spans="1:26" ht="22.5" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>45</v>
@@ -30962,10 +30964,10 @@
     </row>
     <row r="16" spans="1:26" ht="22.5" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>52</v>
@@ -31004,10 +31006,10 @@
     </row>
     <row r="17" spans="1:26" ht="22.5" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>48</v>
@@ -31046,10 +31048,10 @@
     </row>
     <row r="18" spans="1:26" ht="22.5" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>55</v>
@@ -31064,7 +31066,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
@@ -31088,16 +31090,16 @@
     </row>
     <row r="19" spans="1:26" ht="22.5" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="23">
         <v>4</v>
@@ -31106,7 +31108,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
@@ -31186,7 +31188,7 @@
     </row>
     <row r="22" spans="1:26" ht="22.5" customHeight="1">
       <c r="A22" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
